--- a/data/trans_camb/LAWTONB_2R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.356094729454334</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>17.76849639856135</v>
+        <v>17.76849639856134</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.013825723817193</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.440753257956604</v>
+        <v>-4.432920835523595</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.368977259599863</v>
+        <v>-7.884366910771456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.122786938116399</v>
+        <v>2.409512714256234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02101910161286721</v>
+        <v>-0.2313720169446255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.745743554824288</v>
+        <v>-2.227701238293487</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.68510998051405</v>
+        <v>12.33745536527561</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2390378765796089</v>
+        <v>-0.2883391593954386</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.184830514917378</v>
+        <v>-2.776924220704105</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.14643972136064</v>
+        <v>11.00316147976856</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.519457366982088</v>
+        <v>8.456613885379335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.441546427143287</v>
+        <v>4.217671657916275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.02948708925848</v>
+        <v>14.97460158092565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.37549299666004</v>
+        <v>11.22828872451383</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.540790914802166</v>
+        <v>9.806547280105439</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.91169032316406</v>
+        <v>22.49239945761854</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.333406938833676</v>
+        <v>8.199655670778141</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.531806071432854</v>
+        <v>5.825644455010453</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.06370608011224</v>
+        <v>19.23028011146729</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.09498318152764844</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5028786297615395</v>
+        <v>0.5028786297615392</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1224830899003952</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.137395392541854</v>
+        <v>-0.1410568322148149</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2290329502735615</v>
+        <v>-0.2399034986008216</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0645612720824315</v>
+        <v>0.07261801456286619</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0004198591541164887</v>
+        <v>-0.005094728050720634</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06910404098980626</v>
+        <v>-0.05679687601727659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3282933127276658</v>
+        <v>0.3212988155532752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.006669135772910437</v>
+        <v>-0.004999607394763931</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09154493532353683</v>
+        <v>-0.08264528278364218</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3206185771856003</v>
+        <v>0.3147768513410361</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3325200405570534</v>
+        <v>0.3364047375698638</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1751530837500899</v>
+        <v>0.1740738635173337</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.573555754990864</v>
+        <v>0.5930660522077759</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3575244225577719</v>
+        <v>0.3535008450904817</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.300486557866112</v>
+        <v>0.3115301647475769</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7098698695917491</v>
+        <v>0.7056448493321409</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2699282339802592</v>
+        <v>0.2741685498108345</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1752628739194857</v>
+        <v>0.1860883482755585</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6362258641213557</v>
+        <v>0.6269148476463693</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.225565859175394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2229292980885755</v>
+        <v>0.2229292980885728</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.764414151219131</v>
@@ -878,7 +878,7 @@
         <v>1.969680002261148</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.797122159818934</v>
+        <v>1.797122159818942</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.38937747793322</v>
+        <v>-9.546031634093474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.56702474593505</v>
+        <v>-13.83376937973769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.721979909519845</v>
+        <v>-9.674051245352716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.40863168541609</v>
+        <v>-11.34931365298868</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.253526500145792</v>
+        <v>-6.483951103387521</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.9249088017512</v>
+        <v>-9.414428302210041</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.979154901241359</v>
+        <v>-7.647766913203563</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.123758617657032</v>
+        <v>-5.520179520005632</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.582591848220274</v>
+        <v>-5.801649267533259</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.41279796240397</v>
+        <v>11.68153686725761</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.762976421737773</v>
+        <v>4.395199790476851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.829353088449451</v>
+        <v>6.994794812865736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.54201321217377</v>
+        <v>18.15051601199407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.68146684157791</v>
+        <v>20.60027784389547</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.8964892999493</v>
+        <v>13.8912650028328</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.12546814118926</v>
+        <v>10.28056186601282</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.779702466924075</v>
+        <v>9.018572711917477</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.436681381650889</v>
+        <v>8.405111193792788</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2623366869187957</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01384016612844894</v>
+        <v>0.01384016612844877</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1734893488378206</v>
@@ -983,7 +983,7 @@
         <v>0.1069220756939461</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.09755494871392401</v>
+        <v>0.09755494871392445</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4820675237341248</v>
+        <v>-0.4466114300132812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.594827837024522</v>
+        <v>-0.6109122636781487</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3810157389674277</v>
+        <v>-0.4113013076452003</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4250917832581843</v>
+        <v>-0.3814754643719455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1908832366496465</v>
+        <v>-0.2429229454221956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3173243447380586</v>
+        <v>-0.2879796043649594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2980444985542126</v>
+        <v>-0.3273346438377683</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2256869073558284</v>
+        <v>-0.2522766675541453</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.23135872621361</v>
+        <v>-0.2401495878437282</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.045955326354302</v>
+        <v>1.131943279197202</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3618559703564921</v>
+        <v>0.4604745920340728</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.799647790648935</v>
+        <v>0.7123462202824695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.279130453627111</v>
+        <v>1.262148714153764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.547645261867336</v>
+        <v>1.601093585706008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9196754532681221</v>
+        <v>1.196683225629348</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7963052416379041</v>
+        <v>0.7318404172395878</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6366738208834215</v>
+        <v>0.6292036810002217</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5692899539191136</v>
+        <v>0.6205131870621459</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-38.31754064687551</v>
+        <v>-38.31547907370871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-33.0405232685528</v>
+        <v>-32.36682267788587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-29.80365552473494</v>
+        <v>-30.75708657346448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-47.61194453062632</v>
+        <v>-47.57944785576414</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-41.78546130312131</v>
+        <v>-45.03874682708238</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-41.74655375236242</v>
+        <v>-43.73053463337726</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-35.36546019763178</v>
+        <v>-35.14303713707256</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-30.16809340211702</v>
+        <v>-30.71338994121363</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-30.39573469425306</v>
+        <v>-31.115372747174</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3358976619288323</v>
+        <v>-2.785667152669468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.218913721233327</v>
+        <v>3.248296635938146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.739316424838628</v>
+        <v>1.925011294958322</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.68433050492601</v>
+        <v>4.552208494523684</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.66132804517436</v>
+        <v>6.266032440746618</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.200900524324398</v>
+        <v>-4.010194586971076</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-5.152240607785547</v>
+        <v>-3.979195407670955</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6869079937543777</v>
+        <v>1.397029739467988</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-4.370266669210912</v>
+        <v>-5.097816806374134</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.5350624825292409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.459767886771595</v>
+        <v>-0.4597678867715951</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.5381372096571264</v>
@@ -1211,28 +1211,28 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.866810901726801</v>
+        <v>-0.8764608452098658</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7139874531639216</v>
+        <v>-0.7389244440326739</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8798831049515008</v>
+        <v>-0.879853468877884</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7819443668378856</v>
+        <v>-0.8200325980340341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7074049100243164</v>
+        <v>-0.7242707273722913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.864599424600098</v>
+        <v>-0.85264990115066</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7470505172726164</v>
+        <v>-0.7611055818919865</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6759855317345547</v>
+        <v>-0.6888255490764132</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2145691010129736</v>
+        <v>0.2958884703822092</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5204988115353664</v>
+        <v>0.4011179945701963</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3669875661019975</v>
+        <v>0.1669929049012656</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.318449712918341</v>
+        <v>0.2861358474311808</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3532057024310012</v>
+        <v>0.3058341307890164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.08092619105446484</v>
+        <v>-0.137189514670915</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1600493323276369</v>
+        <v>-0.06742683112488523</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09543810003653133</v>
+        <v>0.08130684003432885</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1876543155120586</v>
+        <v>-0.2131230819845526</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.181766521855669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.68729490027002</v>
+        <v>-1.687294900270023</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.932177867577619</v>
@@ -1297,7 +1297,7 @@
         <v>1.350934109732971</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.851130167992303</v>
+        <v>6.851130167992298</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.409906152543889</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.888023284829138</v>
+        <v>-5.027985356159125</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.952374841984795</v>
+        <v>-10.2996267032659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.259963458579215</v>
+        <v>-7.111922057664372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.121008472823726</v>
+        <v>-1.445933845095764</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.811177504927511</v>
+        <v>-4.247052220958411</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.05841358584976</v>
+        <v>2.544794090059923</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.01597914285731</v>
+        <v>-1.458346825330056</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.431745024955334</v>
+        <v>-5.437989446904073</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4194359079857281</v>
+        <v>-0.1684385815887714</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.255063095164624</v>
+        <v>5.950139821116662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1813540282195942</v>
+        <v>-0.7241928695912973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.479312865715241</v>
+        <v>3.015217440508565</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.203176248134866</v>
+        <v>9.32068687310724</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.385413413408485</v>
+        <v>6.756968948345188</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.02508757501817</v>
+        <v>11.08885929798742</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.888536601639165</v>
+        <v>6.372790028333501</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.951254825085859</v>
+        <v>2.046743527063515</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.092222440482091</v>
+        <v>6.437713044990185</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1969358436604532</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.06412655670361216</v>
+        <v>-0.06412655670361227</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1143514514915512</v>
@@ -1402,7 +1402,7 @@
         <v>0.03928644164120137</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1992373451687484</v>
+        <v>0.1992373451687482</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.07787368367308876</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1732204215856527</v>
+        <v>-0.1723589297763713</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3511593140824378</v>
+        <v>-0.3426508791488601</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2159098939231349</v>
+        <v>-0.244498599568791</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02951337615018357</v>
+        <v>-0.0376234071268134</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1070083708216091</v>
+        <v>-0.1129500223350288</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05650460968586989</v>
+        <v>0.06959519904390808</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0313525519859583</v>
+        <v>-0.04205284927428594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1616233187509171</v>
+        <v>-0.1655088929578504</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.01234275571139158</v>
+        <v>-0.004150453773012485</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2642670714947086</v>
+        <v>0.2613722335583891</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.006359928865198459</v>
+        <v>-0.0285126403978451</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09820900204038326</v>
+        <v>0.1327147902820459</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2979501401966925</v>
+        <v>0.2990609731655332</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1993032732490871</v>
+        <v>0.2117845078676326</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3523585182189113</v>
+        <v>0.3595064588433821</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2009384689128289</v>
+        <v>0.2205110807320054</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06757371136937718</v>
+        <v>0.06816495001214877</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2142834999388301</v>
+        <v>0.2265312314328154</v>
       </c>
     </row>
     <row r="28">
